--- a/PRACTICA EXCEL.xlsx
+++ b/PRACTICA EXCEL.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Curso Mañana.PC05A4\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temporal\GIT2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="36">
   <si>
     <t>MESES</t>
   </si>
@@ -129,6 +129,12 @@
   </si>
   <si>
     <t>MEDIA</t>
+  </si>
+  <si>
+    <t>cambio1</t>
+  </si>
+  <si>
+    <t>cambio2</t>
   </si>
 </sst>
 </file>
@@ -808,7 +814,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -919,7 +924,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1037,11 +1041,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="360403344"/>
-        <c:axId val="360403736"/>
+        <c:axId val="4079472"/>
+        <c:axId val="151299464"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="360403344"/>
+        <c:axId val="4079472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1083,7 +1087,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="360403736"/>
+        <c:crossAx val="151299464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1091,7 +1095,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="360403736"/>
+        <c:axId val="151299464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-500"/>
@@ -1142,7 +1146,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="360403344"/>
+        <c:crossAx val="4079472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2140,7 +2144,7 @@
         <v>1300</v>
       </c>
       <c r="C5" s="7">
-        <f t="shared" ref="C5:N5" si="0">C4*C7</f>
+        <f t="shared" ref="C5:M5" si="0">C4*C7</f>
         <v>1800</v>
       </c>
       <c r="D5" s="7">
@@ -3024,10 +3028,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3152,7 +3156,7 @@
         <v>1421.1</v>
       </c>
       <c r="C6" s="52">
-        <f t="shared" ref="C6:E6" si="2">SUM(C2:C5)</f>
+        <f t="shared" ref="C6:D6" si="2">SUM(C2:C5)</f>
         <v>4001</v>
       </c>
       <c r="D6" s="52">
@@ -3166,6 +3170,16 @@
       <c r="F6" s="53">
         <f t="shared" si="1"/>
         <v>3840.9666666666672</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/PRACTICA EXCEL.xlsx
+++ b/PRACTICA EXCEL.xlsx
@@ -169,7 +169,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -182,6 +182,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="37">
     <border>
@@ -690,7 +696,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -750,6 +756,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1041,11 +1048,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="4079472"/>
-        <c:axId val="151299464"/>
+        <c:axId val="4407152"/>
+        <c:axId val="199618096"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="4079472"/>
+        <c:axId val="4407152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1087,7 +1094,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="151299464"/>
+        <c:crossAx val="199618096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1095,7 +1102,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="151299464"/>
+        <c:axId val="199618096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-500"/>
@@ -1146,7 +1153,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="4079472"/>
+        <c:crossAx val="4407152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3031,7 +3038,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3060,7 +3067,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="59" t="s">
         <v>29</v>
       </c>
       <c r="B2" s="49">
@@ -3082,7 +3089,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="59" t="s">
         <v>30</v>
       </c>
       <c r="B3" s="49">

--- a/PRACTICA EXCEL.xlsx
+++ b/PRACTICA EXCEL.xlsx
@@ -169,7 +169,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -185,6 +185,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -754,9 +760,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1048,11 +1054,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="4407152"/>
-        <c:axId val="199618096"/>
+        <c:axId val="199970104"/>
+        <c:axId val="199970488"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="4407152"/>
+        <c:axId val="199970104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1094,7 +1100,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="199618096"/>
+        <c:crossAx val="199970488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1102,7 +1108,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="199618096"/>
+        <c:axId val="199970488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-500"/>
@@ -1153,7 +1159,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="4407152"/>
+        <c:crossAx val="199970104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3038,7 +3044,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A4" sqref="A4:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3067,7 +3073,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="58" t="s">
         <v>29</v>
       </c>
       <c r="B2" s="49">
@@ -3089,7 +3095,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="58" t="s">
         <v>30</v>
       </c>
       <c r="B3" s="49">
@@ -3111,7 +3117,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="59" t="s">
         <v>31</v>
       </c>
       <c r="B4" s="49">
@@ -3133,7 +3139,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="57" t="s">
+      <c r="A5" s="59" t="s">
         <v>32</v>
       </c>
       <c r="B5" s="49">
@@ -3155,7 +3161,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="58" t="s">
+      <c r="A6" s="57" t="s">
         <v>23</v>
       </c>
       <c r="B6" s="52">
